--- a/Database/sub-04/beh/sub-04_task-work_questionnaire_beh.xlsx
+++ b/Database/sub-04/beh/sub-04_task-work_questionnaire_beh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -541,6 +541,134 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>run-01</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>run-01</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>run-01</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>167</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>run-01</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>240</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
